--- a/doc/11. 小组进度日报/7.26.xlsx
+++ b/doc/11. 小组进度日报/7.26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vue\SNS\SNS\doc\11. 小组进度日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267854E-24D5-4CF5-8A68-4823FC81EB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E6BC8D-ED5F-4B49-B765-CFF1B83F23D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,36 +962,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1007,6 +977,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,6 +991,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:AA188"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="P7" sqref="P7:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1476,72 +1476,72 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="50" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="45" t="s">
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="59" t="s">
         <v>69</v>
       </c>
       <c r="AA4" s="35"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="62"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="50"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="49" t="s">
         <v>2</v>
       </c>
       <c r="K5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="56" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="49" t="s">
@@ -1553,36 +1553,36 @@
       <c r="P5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="50" t="s">
+      <c r="Q5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="44" t="s">
+      <c r="R5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="44" t="s">
+      <c r="S5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="48" t="s">
+      <c r="T5" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48" t="s">
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="46"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="60"/>
       <c r="AA5" s="35"/>
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1592,17 +1592,17 @@
       <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="50"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
       <c r="N6" s="49"/>
       <c r="O6" s="49"/>
       <c r="P6" s="49"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="44"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="56"/>
       <c r="T6" s="8" t="s">
         <v>26</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="Y6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="46"/>
+      <c r="Z6" s="60"/>
       <c r="AA6" s="35"/>
     </row>
     <row r="7" spans="1:27">
@@ -2075,7 +2075,7 @@
         <v>45499</v>
       </c>
       <c r="P12" s="31">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="32">
         <v>20</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="O13" s="28"/>
       <c r="P13" s="31">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="32">
         <v>15</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="O14" s="28"/>
       <c r="P14" s="31">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="32">
         <v>15</v>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="O15" s="28"/>
       <c r="P15" s="31">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="32">
         <v>15</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="O16" s="28"/>
       <c r="P16" s="31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="32">
         <v>30</v>
@@ -2452,7 +2452,7 @@
         <v>45499</v>
       </c>
       <c r="P17" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="32">
         <v>5</v>
@@ -2533,7 +2533,7 @@
         <v>45499</v>
       </c>
       <c r="P18" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="32">
         <v>5</v>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="X18" s="34"/>
       <c r="Y18" s="36">
-        <f t="shared" ref="Y16:Y24" si="6">IF(W18="","",W18+X18*10%)</f>
+        <f t="shared" ref="Y18:Y22" si="6">IF(W18="","",W18+X18*10%)</f>
         <v>1</v>
       </c>
       <c r="Z18" s="37"/>
@@ -2613,7 +2613,7 @@
         <v>45499</v>
       </c>
       <c r="P19" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="32">
         <v>5</v>
@@ -2693,7 +2693,7 @@
         <v>45499</v>
       </c>
       <c r="P20" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="32">
         <v>5</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="O21" s="28"/>
       <c r="P21" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="32">
         <v>5</v>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="O22" s="28"/>
       <c r="P22" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="32">
         <v>5</v>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="O23" s="28"/>
       <c r="P23" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="32">
         <v>5</v>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="32">
         <v>5</v>
@@ -3076,7 +3076,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -3110,7 +3110,7 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="55"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="41" t="s">
         <v>71</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="55"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="21" t="s">
         <v>72</v>
       </c>
@@ -3175,7 +3175,7 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="55"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="41" t="s">
         <v>74</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="55"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="21" t="s">
         <v>73</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="55"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="23" t="s">
         <v>9</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="55"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="42" t="s">
         <v>76</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="55"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="41" t="s">
         <v>77</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="55"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="21" t="s">
         <v>75</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="55"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="41" t="s">
         <v>74</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="15" thickBot="1">
-      <c r="A37" s="56"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="25" t="s">
         <v>10</v>
       </c>
@@ -7820,17 +7820,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="22">
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F4:H5"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="Z4:Z6"/>
     <mergeCell ref="J4:Y4"/>
@@ -7842,6 +7831,17 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7850,6 +7850,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="2" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -7861,45 +7880,26 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="2" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="4"/>
-</pixelators>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>